--- a/excel_files/pc_gain_match_06242014.xlsx
+++ b/excel_files/pc_gain_match_06242014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="-40" yWindow="20" windowWidth="22720" windowHeight="13760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Pulser Amplitude</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Wire 8 Right</t>
+  </si>
+  <si>
+    <t>5x Atten.</t>
   </si>
 </sst>
 </file>
@@ -82,6 +85,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,8 +122,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -131,13 +157,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,12 +518,14 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.83203125" customWidth="1"/>
     <col min="8" max="8" width="2" customWidth="1"/>
     <col min="11" max="11" width="2.1640625" customWidth="1"/>
@@ -487,6 +537,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -510,6 +563,10 @@
       <c r="A2">
         <v>1.5142500000000001</v>
       </c>
+      <c r="B2">
+        <f>A2/5*1000</f>
+        <v>302.85000000000002</v>
+      </c>
       <c r="C2" s="1">
         <v>945.59100000000001</v>
       </c>
@@ -533,6 +590,10 @@
       <c r="A3">
         <v>2.5597400000000001</v>
       </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B5" si="0">A3/5*1000</f>
+        <v>511.94800000000009</v>
+      </c>
       <c r="C3" s="1">
         <v>1567.42</v>
       </c>
@@ -556,6 +617,10 @@
       <c r="A4">
         <v>3.6907299999999998</v>
       </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>738.14599999999996</v>
+      </c>
       <c r="C4" s="1">
         <v>2227.06</v>
       </c>
@@ -579,6 +644,10 @@
       <c r="A5">
         <v>5.5604399999999998</v>
       </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1112.088</v>
+      </c>
       <c r="C5" s="1">
         <v>3277.49</v>
       </c>
@@ -600,84 +669,84 @@
     </row>
     <row r="7" spans="1:19">
       <c r="C7">
-        <f t="array" ref="C7:D9">LINEST($A$2:$A$5,C2:C5,1,1)</f>
-        <v>1.7365393123014033E-3</v>
+        <f t="array" ref="C7:D9">LINEST($B$2:$B$5,C2:C5,1,1)</f>
+        <v>0.34730786246028073</v>
       </c>
       <c r="D7">
-        <v>-0.1494124663186378</v>
+        <v>-29.882493263727611</v>
       </c>
       <c r="F7">
-        <f t="array" ref="F7:G9">LINEST($A$2:$A$5,F2:F5,1,1)</f>
-        <v>1.7255608230775301E-3</v>
+        <f t="array" ref="F7:G9">LINEST($B$2:$B$5,F2:F5,1,1)</f>
+        <v>0.34511216461550603</v>
       </c>
       <c r="G7">
-        <v>-0.14002545307733039</v>
+        <v>-28.005090615466088</v>
       </c>
       <c r="I7">
-        <f t="array" ref="I7:J9">LINEST($A$2:$A$5,I2:I5,1,1)</f>
-        <v>1.6992840520775173E-3</v>
+        <f t="array" ref="I7:J9">LINEST($B$2:$B$5,I2:I5,1,1)</f>
+        <v>0.33985681041550342</v>
       </c>
       <c r="J7">
-        <v>-0.17463122378705753</v>
+        <v>-34.926244757411382</v>
       </c>
       <c r="L7">
-        <f t="array" ref="L7:M9">LINEST($A$2:$A$5,L2:L5,1,1)</f>
-        <v>1.7727516216124396E-3</v>
+        <f t="array" ref="L7:M9">LINEST($B$2:$B$5,L2:L5,1,1)</f>
+        <v>0.35455032432248801</v>
       </c>
       <c r="M7">
-        <v>-0.14862896741961062</v>
+        <v>-29.725793483922303</v>
       </c>
       <c r="O7">
-        <f t="array" ref="O7:P9">LINEST($A$2:$A$5,O2:O5,1,1)</f>
-        <v>1.6462761130520587E-3</v>
+        <f t="array" ref="O7:P9">LINEST($B$2:$B$5,O2:O5,1,1)</f>
+        <v>0.32925522261041179</v>
       </c>
       <c r="P7">
-        <v>-0.16589434695648864</v>
+        <v>-33.178869391297781</v>
       </c>
       <c r="R7">
-        <f t="array" ref="R7:S9">LINEST($A$2:$A$5,R2:R5,1,1)</f>
-        <v>1.7324942707936089E-3</v>
+        <f t="array" ref="R7:S9">LINEST($B$2:$B$5,R2:R5,1,1)</f>
+        <v>0.34649885415872178</v>
       </c>
       <c r="S7">
-        <v>-0.14256284852373335</v>
+        <v>-28.512569704746625</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="C8">
-        <v>1.6921389228654904E-5</v>
+        <v>3.3842778457309681E-3</v>
       </c>
       <c r="D8">
-        <v>3.6930408393313345E-2</v>
+        <v>7.3860816786626406</v>
       </c>
       <c r="F8">
-        <v>1.9656325595211111E-5</v>
+        <v>3.9312651190422038E-3</v>
       </c>
       <c r="G8">
-        <v>4.3073839636773484E-2</v>
+        <v>8.614767927354654</v>
       </c>
       <c r="I8">
-        <v>1.8905406358462748E-5</v>
+        <v>3.7810812716925261E-3</v>
       </c>
       <c r="J8">
-        <v>4.2422697130323588E-2</v>
+        <v>8.4845394260646643</v>
       </c>
       <c r="L8">
-        <v>1.9312986599590386E-5</v>
+        <v>3.8625973199181004E-3</v>
       </c>
       <c r="M8">
-        <v>4.1280997773748399E-2</v>
+        <v>8.2561995547497293</v>
       </c>
       <c r="O8">
-        <v>2.0652481753850711E-5</v>
+        <v>4.1304963507701352E-3</v>
       </c>
       <c r="P8">
-        <v>4.7734220177919368E-2</v>
+        <v>9.5468440355838577</v>
       </c>
       <c r="R8">
-        <v>1.9450458013885504E-5</v>
+        <v>3.8900916027770857E-3</v>
       </c>
       <c r="S8">
-        <v>4.2478313929313574E-2</v>
+        <v>8.495662785862681</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -685,37 +754,37 @@
         <v>0.99981013263590268</v>
       </c>
       <c r="D9">
-        <v>2.9222429087155374E-2</v>
+        <v>5.8444858174310523</v>
       </c>
       <c r="F9">
         <v>0.99974054536591894</v>
       </c>
       <c r="G9">
-        <v>3.4160315161375618E-2</v>
+        <v>6.8320630322750908</v>
       </c>
       <c r="I9">
-        <v>0.99975250720070241</v>
+        <v>0.9997525072007023</v>
       </c>
       <c r="J9">
-        <v>3.3363563970077968E-2</v>
+        <v>6.6727127940155526</v>
       </c>
       <c r="L9">
-        <v>0.99976268236408716</v>
+        <v>0.99976268236408705</v>
       </c>
       <c r="M9">
-        <v>3.2670528466275557E-2</v>
+        <v>6.5341056932551504</v>
       </c>
       <c r="O9">
         <v>0.99968534657551789</v>
       </c>
       <c r="P9">
-        <v>3.7619011897970706E-2</v>
+        <v>7.5238023795941285</v>
       </c>
       <c r="R9">
-        <v>0.99974797908662505</v>
+        <v>0.99974797908662494</v>
       </c>
       <c r="S9">
-        <v>3.3667389502910719E-2</v>
+        <v>6.7334779005821161</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -820,122 +889,122 @@
     </row>
     <row r="17" spans="3:19">
       <c r="C17">
-        <f t="array" ref="C17:D19">LINEST($A$2:$A$5,C12:C15,1,1)</f>
-        <v>1.6958531670784602E-3</v>
+        <f t="array" ref="C17:D19">LINEST($B$2:$B$5,C12:C15,1,1)</f>
+        <v>0.3391706334156922</v>
       </c>
       <c r="D17">
-        <v>-0.14405454046735455</v>
+        <v>-28.810908093471198</v>
       </c>
       <c r="F17">
-        <f t="array" ref="F17:G19">LINEST($A$2:$A$5,F12:F15,1,1)</f>
-        <v>1.7021994699439548E-3</v>
+        <f t="array" ref="F17:G19">LINEST($B$2:$B$5,F12:F15,1,1)</f>
+        <v>0.34043989398879093</v>
       </c>
       <c r="G17">
-        <v>-0.15230930237532903</v>
+        <v>-30.461860475065691</v>
       </c>
       <c r="I17">
-        <f t="array" ref="I17:J19">LINEST($A$2:$A$5,I12:I15,1,1)</f>
-        <v>1.7387917109562662E-3</v>
+        <f t="array" ref="I17:J19">LINEST($B$2:$B$5,I12:I15,1,1)</f>
+        <v>0.34775834219125323</v>
       </c>
       <c r="J17">
-        <v>-0.14384216029801156</v>
+        <v>-28.768432059602333</v>
       </c>
       <c r="L17">
-        <f t="array" ref="L17:M19">LINEST($A$2:$A$5,L12:L15,1,1)</f>
-        <v>1.7880004771086604E-3</v>
+        <f t="array" ref="L17:M19">LINEST($B$2:$B$5,L12:L15,1,1)</f>
+        <v>0.35760009542173216</v>
       </c>
       <c r="M17">
-        <v>-0.15053339308705338</v>
+        <v>-30.106678617410807</v>
       </c>
       <c r="O17">
-        <f t="array" ref="O17:P19">LINEST($A$2:$A$5,O12:O15,1,1)</f>
-        <v>1.7613686240678841E-3</v>
+        <f t="array" ref="O17:P19">LINEST($B$2:$B$5,O12:O15,1,1)</f>
+        <v>0.35227372481357688</v>
       </c>
       <c r="P17">
-        <v>-0.15537926247857436</v>
+        <v>-31.075852495714912</v>
       </c>
       <c r="R17">
-        <f t="array" ref="R17:S19">LINEST($A$2:$A$5,R12:R15,1,1)</f>
-        <v>1.6914353835152764E-3</v>
+        <f t="array" ref="R17:S19">LINEST($B$2:$B$5,R12:R15,1,1)</f>
+        <v>0.3382870767030553</v>
       </c>
       <c r="S17">
-        <v>-0.15065448032573059</v>
+        <v>-30.130896065146203</v>
       </c>
     </row>
     <row r="18" spans="3:19">
       <c r="C18">
-        <v>1.8631385172447023E-5</v>
+        <v>3.7262770344894084E-3</v>
       </c>
       <c r="D18">
-        <v>4.1583753180811214E-2</v>
+        <v>8.316750636162249</v>
       </c>
       <c r="F18">
-        <v>2.0215477713039366E-5</v>
+        <v>4.043095542607864E-3</v>
       </c>
       <c r="G18">
-        <v>4.5040989563561729E-2</v>
+        <v>9.0081979127123262</v>
       </c>
       <c r="I18">
-        <v>1.9127193179044801E-5</v>
+        <v>3.8254386358089415E-3</v>
       </c>
       <c r="J18">
-        <v>4.1633993853893506E-2</v>
+        <v>8.3267987707786606</v>
       </c>
       <c r="L18">
-        <v>1.8581473187173503E-5</v>
+        <v>3.7162946374346838E-3</v>
       </c>
       <c r="M18">
-        <v>3.9396922248331669E-2</v>
+        <v>7.8793844496662988</v>
       </c>
       <c r="O18">
-        <v>1.8010721751782901E-5</v>
+        <v>3.6021443503565704E-3</v>
       </c>
       <c r="P18">
-        <v>3.8809719836065133E-2</v>
+        <v>7.7619439672130062</v>
       </c>
       <c r="R18">
-        <v>1.9622450153753458E-5</v>
+        <v>3.9244900307506773E-3</v>
       </c>
       <c r="S18">
-        <v>4.3980335760987178E-2</v>
+        <v>8.7960671521974039</v>
       </c>
     </row>
     <row r="19" spans="3:19">
       <c r="C19">
-        <v>0.9997586546348709</v>
+        <v>0.99975865463487101</v>
       </c>
       <c r="D19">
-        <v>3.2946602356118924E-2</v>
+        <v>6.5893204712237905</v>
       </c>
       <c r="F19">
-        <v>0.99971799642032821</v>
+        <v>0.99971799642032833</v>
       </c>
       <c r="G19">
-        <v>3.5613812132581142E-2</v>
+        <v>7.1227624265162133</v>
       </c>
       <c r="I19">
         <v>0.99975804629894816</v>
       </c>
       <c r="J19">
-        <v>3.298809888075685E-2</v>
+        <v>6.5976197761513387</v>
       </c>
       <c r="L19">
-        <v>0.99978404601463033</v>
+        <v>0.99978404601463045</v>
       </c>
       <c r="M19">
-        <v>3.1165332482037039E-2</v>
+        <v>6.2330664964073792</v>
       </c>
       <c r="O19">
-        <v>0.99979092557630145</v>
+        <v>0.99979092557630134</v>
       </c>
       <c r="P19">
-        <v>3.0664903829724744E-2</v>
+        <v>6.1329807659449314</v>
       </c>
       <c r="R19">
         <v>0.99973090306030388</v>
       </c>
       <c r="S19">
-        <v>3.4789287333714204E-2</v>
+        <v>6.9578574667428166</v>
       </c>
     </row>
     <row r="21" spans="3:19">
@@ -1010,84 +1079,84 @@
     </row>
     <row r="27" spans="3:19">
       <c r="C27">
-        <f t="array" ref="C27:D29">LINEST($A$2:$A$5,C22:C25,1,1)</f>
-        <v>1.8141094751796625E-3</v>
+        <f t="array" ref="C27:D29">LINEST($B$2:$B$5,C22:C25,1,1)</f>
+        <v>0.36282189503593248</v>
       </c>
       <c r="D27">
-        <v>-0.14482811610446777</v>
+        <v>-28.965623220893576</v>
       </c>
       <c r="F27">
-        <f t="array" ref="F27:G29">LINEST($A$2:$A$5,F22:F25,1,1)</f>
-        <v>1.7396525994599692E-3</v>
+        <f t="array" ref="F27:G29">LINEST($B$2:$B$5,F22:F25,1,1)</f>
+        <v>0.34793051989199386</v>
       </c>
       <c r="G27">
-        <v>-0.15419879408471937</v>
+        <v>-30.8397588169438</v>
       </c>
       <c r="I27">
-        <f t="array" ref="I27:J29">LINEST($A$2:$A$5,I22:I25,1,1)</f>
-        <v>1.6475478040872626E-3</v>
+        <f t="array" ref="I27:J29">LINEST($B$2:$B$5,I22:I25,1,1)</f>
+        <v>0.32950956081745258</v>
       </c>
       <c r="J27">
-        <v>-0.18687946197843042</v>
+        <v>-37.375892395686151</v>
       </c>
       <c r="L27">
-        <f t="array" ref="L27:M29">LINEST($A$2:$A$5,L22:L25,1,1)</f>
-        <v>1.6177822707365973E-3</v>
+        <f t="array" ref="L27:M29">LINEST($B$2:$B$5,L22:L25,1,1)</f>
+        <v>0.32355645414731948</v>
       </c>
       <c r="M27">
-        <v>-0.15781337894303471</v>
+        <v>-31.562675788606953</v>
       </c>
     </row>
     <row r="28" spans="3:19">
       <c r="C28">
-        <v>1.810287641266735E-5</v>
+        <v>3.6205752825334342E-3</v>
       </c>
       <c r="D28">
-        <v>3.7777552103876261E-2</v>
+        <v>7.5555104207751773</v>
       </c>
       <c r="F28">
-        <v>1.8844713157402254E-5</v>
+        <v>3.7689426314804265E-3</v>
       </c>
       <c r="G28">
-        <v>4.1101879169574071E-2</v>
+        <v>8.2203758339147619</v>
       </c>
       <c r="I28">
-        <v>2.2173858176974978E-5</v>
+        <v>4.4347716353949716E-3</v>
       </c>
       <c r="J28">
-        <v>5.147054239225491E-2</v>
+        <v>10.294108478450926</v>
       </c>
       <c r="L28">
-        <v>1.9964902967373383E-5</v>
+        <v>3.9929805934746628E-3</v>
       </c>
       <c r="M28">
-        <v>4.6866158267313218E-2</v>
+        <v>9.3732316534626126</v>
       </c>
     </row>
     <row r="29" spans="3:19">
       <c r="C29">
-        <v>0.99980088145933987</v>
+        <v>0.99980088145933999</v>
       </c>
       <c r="D29">
-        <v>2.9925885032967347E-2</v>
+        <v>5.9851770065934096</v>
       </c>
       <c r="F29">
-        <v>0.99976537078511329</v>
+        <v>0.99976537078511352</v>
       </c>
       <c r="G29">
-        <v>3.2484949541661347E-2</v>
+        <v>6.4969899083322264</v>
       </c>
       <c r="I29">
-        <v>0.99963785776922776</v>
+        <v>0.99963785776922764</v>
       </c>
       <c r="J29">
-        <v>4.0358102506609039E-2</v>
+        <v>8.0716205013217639</v>
       </c>
       <c r="L29">
         <v>0.99969549670555413</v>
       </c>
       <c r="M29">
-        <v>3.7007278689880158E-2</v>
+        <v>7.401455737976006</v>
       </c>
     </row>
   </sheetData>
